--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A56C8E-4FDE-4784-8200-FE24C113DF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71014483-6D6D-4D0B-82AE-1096DD3FB955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
+    <workbookView xWindow="885" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>brand</t>
   </si>
@@ -117,6 +117,39 @@
   </si>
   <si>
     <t>Pertanian</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>1.3 VELOZ M/T</t>
+  </si>
+  <si>
+    <t>BINTARO</t>
+  </si>
+  <si>
+    <t>Pribadi</t>
+  </si>
+  <si>
+    <t>PLUIT</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>HARAPAN INDAH</t>
+  </si>
+  <si>
+    <t>1.0 D+M/T NEW</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -469,27 +502,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BFA2E6-AED2-41C1-8DDD-DEF406BE1CD8}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -589,6 +626,217 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71014483-6D6D-4D0B-82AE-1096DD3FB955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308FE8C-ACBB-4645-AC39-1082E915C503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>brand</t>
   </si>
@@ -122,9 +123,6 @@
     <t>used</t>
   </si>
   <si>
-    <t>1.3 VELOZ M/T</t>
-  </si>
-  <si>
     <t>BINTARO</t>
   </si>
   <si>
@@ -143,20 +141,47 @@
     <t>AYLA</t>
   </si>
   <si>
-    <t>HARAPAN INDAH</t>
-  </si>
-  <si>
     <t>1.0 D+M/T NEW</t>
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Putih, Silver</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>T:1.0 D+M/T NEW</t>
+  </si>
+  <si>
+    <t>DKI Jakarta, Banten, Jawa Barat</t>
+  </si>
+  <si>
+    <t>variabelLainIsEmpty</t>
+  </si>
+  <si>
+    <t>bidangUsahaDanVariabelLainIsEmptyUsaha</t>
+  </si>
+  <si>
+    <t>variabelLainIsEmptyUsaha</t>
+  </si>
+  <si>
+    <t>bidangUsahaIsEmptyUsaha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +190,49 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,12 +240,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,20 +656,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BFA2E6-AED2-41C1-8DDD-DEF406BE1CD8}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -526,315 +678,588 @@
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>2019</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P2">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
-        <v>24</v>
+      <c r="Q4" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8">
         <v>2018</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="9">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
-        <v>24</v>
+      <c r="Q5" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8">
         <v>2018</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="I6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="9">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
-        <v>24</v>
+      <c r="Q6" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F00E39-8AE4-4755-8526-EA66E042D8C2}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E2" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
-        <v>2018</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7">
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4">
         <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308FE8C-ACBB-4645-AC39-1082E915C503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92019229-810C-435F-B63C-96C433DCBFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>brand</t>
   </si>
@@ -72,9 +72,6 @@
     <t>warnaSilver</t>
   </si>
   <si>
-    <t>warnaMerah</t>
-  </si>
-  <si>
     <t>warnaSemua</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Pribadi</t>
   </si>
   <si>
-    <t>PLUIT</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Used</t>
   </si>
   <si>
-    <t>T:1.0 D+M/T NEW</t>
-  </si>
-  <si>
     <t>DKI Jakarta, Banten, Jawa Barat</t>
   </si>
   <si>
@@ -175,6 +166,15 @@
   </si>
   <si>
     <t>bidangUsahaIsEmptyUsaha</t>
+  </si>
+  <si>
+    <t>AGYA</t>
+  </si>
+  <si>
+    <t>T:1.2 G A/T NEW</t>
+  </si>
+  <si>
+    <t>BANDUNG 3 CIBIRU</t>
   </si>
 </sst>
 </file>
@@ -654,36 +654,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BFA2E6-AED2-41C1-8DDD-DEF406BE1CD8}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -730,284 +729,271 @@
       <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
+      <c r="O2" s="7">
         <v>48</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>24</v>
+      <c r="P2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6">
         <v>2018</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>2018</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
+        <v>22</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
         <v>36</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>46</v>
+      <c r="P4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8">
         <v>2018</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="N5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="9">
         <v>24</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="P5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8">
         <v>2018</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="N6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="9">
         <v>24</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>45</v>
+      <c r="P6" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>2019</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
+      <c r="O7" s="9">
         <v>60</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>43</v>
+      <c r="P7" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1036,37 +1022,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="2">
         <v>2019</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2">
         <v>12</v>
@@ -1074,37 +1060,37 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="4">
         <v>2018</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4">
         <v>36</v>
@@ -1112,37 +1098,37 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4">
         <v>36</v>
@@ -1150,37 +1136,37 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>2018</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4">
         <v>36</v>
@@ -1188,37 +1174,37 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>2018</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4">
         <v>36</v>
@@ -1226,37 +1212,37 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>2019</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4">
         <v>60</v>

--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92019229-810C-435F-B63C-96C433DCBFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9B3F6-A198-411B-879E-2B320747B5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>29</v>

--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9B3F6-A198-411B-879E-2B320747B5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{01EB28EE-9F05-4D76-BB58-6F58EBC6F20E}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t>brand</t>
   </si>
@@ -63,18 +62,6 @@
     <t>typeCustomer</t>
   </si>
   <si>
-    <t>warnaHitam</t>
-  </si>
-  <si>
-    <t>warnaPutih</t>
-  </si>
-  <si>
-    <t>warnaSilver</t>
-  </si>
-  <si>
-    <t>warnaSemua</t>
-  </si>
-  <si>
     <t>periodeLeasing</t>
   </si>
   <si>
@@ -102,9 +89,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>passed</t>
   </si>
   <si>
@@ -138,9 +122,6 @@
     <t>1.0 D+M/T NEW</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -156,38 +137,58 @@
     <t>DKI Jakarta, Banten, Jawa Barat</t>
   </si>
   <si>
-    <t>variabelLainIsEmpty</t>
-  </si>
-  <si>
-    <t>bidangUsahaDanVariabelLainIsEmptyUsaha</t>
-  </si>
-  <si>
-    <t>variabelLainIsEmptyUsaha</t>
-  </si>
-  <si>
-    <t>bidangUsahaIsEmptyUsaha</t>
-  </si>
-  <si>
     <t>AGYA</t>
   </si>
   <si>
     <t>T:1.2 G A/T NEW</t>
   </si>
   <si>
-    <t>BANDUNG 3 CIBIRU</t>
+    <t>T:1.0 G M/T</t>
+  </si>
+  <si>
+    <t>warna</t>
+  </si>
+  <si>
+    <t>Hitam</t>
+  </si>
+  <si>
+    <t>Merah</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>1.3 VELOZ A/T</t>
+  </si>
+  <si>
+    <t>BANDUNG ASTRACENTER JAWA BARAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,34 +312,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BFA2E6-AED2-41C1-8DDD-DEF406BE1CD8}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,22 +686,22 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -696,7 +715,7 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -712,289 +731,253 @@
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="7">
+        <v>48</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="7">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>48</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2018</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>36</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8">
         <v>2018</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9">
+        <v>36</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9">
-        <v>36</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8">
         <v>2018</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="L5" s="9">
+        <v>24</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="9">
-        <v>24</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8">
         <v>2018</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
+        <v>24</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="9">
-        <v>24</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="8">
         <v>2019</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>22</v>
+      <c r="L7" s="9">
+        <v>60</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>60</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F00E39-8AE4-4755-8526-EA66E042D8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,37 +1005,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2">
         <v>2019</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L1" s="2">
         <v>12</v>
@@ -1060,37 +1043,37 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4">
         <v>2018</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4">
         <v>36</v>
@@ -1098,37 +1081,37 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L3" s="4">
         <v>36</v>
@@ -1136,37 +1119,37 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>2018</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L4" s="4">
         <v>36</v>
@@ -1174,37 +1157,37 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4">
         <v>2018</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L5" s="4">
         <v>36</v>
@@ -1212,37 +1195,37 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>2019</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L6" s="4">
         <v>60</v>

--- a/cariMobilRental.xlsx
+++ b/cariMobilRental.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>brand</t>
   </si>
@@ -161,20 +161,42 @@
     <t>1.3 VELOZ A/T</t>
   </si>
   <si>
-    <t>BANDUNG ASTRACENTER JAWA BARAT</t>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>brandEmpty</t>
+  </si>
+  <si>
+    <t>wakaka</t>
+  </si>
+  <si>
+    <t>bzzz</t>
+  </si>
+  <si>
+    <t>typeMobilEmpty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,21 +334,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,28 +370,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,9 +720,9 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="47.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -737,9 +765,11 @@
         <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -823,12 +853,12 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>34</v>
@@ -848,28 +878,34 @@
       <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="L4" s="9">
         <v>36</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>35</v>
@@ -892,16 +928,20 @@
       <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" s="9">
         <v>24</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
